--- a/data/georgia_census/imereti/samtredia/population_total.xlsx
+++ b/data/georgia_census/imereti/samtredia/population_total.xlsx
@@ -1366,13 +1366,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2138BE70-11EA-49E1-B190-E471023DF096}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775BCE2B-96A9-4E8A-9F62-085F7E6C9E23}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE3377DE-6649-41A0-8067-1F302AF4DCFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A54678C-8C2D-498F-BB82-B9A2077BE2A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{325FE2FC-0322-45EB-A2E6-1C97C9E62849}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF55362C-9187-43D2-BE73-31226A87128B}"/>
 </file>